--- a/Data/ROY Data/rookies_14_15.xlsx
+++ b/Data/ROY Data/rookies_14_15.xlsx
@@ -1008,76 +1008,76 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="I2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O2">
         <v>9</v>
       </c>
       <c r="P2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S2">
         <v>7</v>
       </c>
       <c r="T2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="W2">
-        <v>0.402</v>
+        <v>0.407</v>
       </c>
       <c r="X2">
-        <v>0.385</v>
+        <v>0.4</v>
       </c>
       <c r="Y2">
-        <v>0.607</v>
+        <v>0.609</v>
       </c>
       <c r="Z2">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB2">
         <v>0.9</v>
       </c>
       <c r="AC2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="s">
         <v>174</v>
@@ -1192,76 +1192,76 @@
         <v>21</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>360</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>7040</v>
+        <v>358</v>
       </c>
       <c r="I4">
-        <v>782</v>
+        <v>31</v>
       </c>
       <c r="J4">
-        <v>1592</v>
+        <v>89</v>
       </c>
       <c r="K4">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="M4">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>432</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>1430</v>
+        <v>72</v>
       </c>
       <c r="Q4">
-        <v>705</v>
+        <v>28</v>
       </c>
       <c r="R4">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="S4">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <v>504</v>
+        <v>28</v>
       </c>
       <c r="V4">
-        <v>1940</v>
+        <v>74</v>
       </c>
       <c r="W4">
-        <v>0.491</v>
+        <v>0.348</v>
       </c>
       <c r="X4">
-        <v>0.307</v>
+        <v>0.273</v>
       </c>
       <c r="Y4">
-        <v>0.697</v>
+        <v>0.643</v>
       </c>
       <c r="Z4">
-        <v>19.6</v>
+        <v>10.8</v>
       </c>
       <c r="AA4">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="AB4">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AD4" t="s">
         <v>174</v>
@@ -1284,76 +1284,73 @@
         <v>24</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>167</v>
-      </c>
-      <c r="I5">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>54</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>11</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
         <v>10</v>
       </c>
-      <c r="P5">
-        <v>36</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>7</v>
-      </c>
-      <c r="U5">
-        <v>27</v>
-      </c>
-      <c r="V5">
-        <v>44</v>
-      </c>
       <c r="W5">
-        <v>0.296</v>
-      </c>
-      <c r="X5">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="Y5">
-        <v>0.846</v>
+        <v>0.8</v>
       </c>
       <c r="Z5">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="AA5">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" t="s">
         <v>174</v>
@@ -1545,76 +1542,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="H8">
-        <v>3319</v>
+        <v>1196</v>
       </c>
       <c r="I8">
-        <v>439</v>
+        <v>157</v>
       </c>
       <c r="J8">
-        <v>798</v>
+        <v>273</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="N8">
-        <v>335</v>
+        <v>118</v>
       </c>
       <c r="O8">
-        <v>393</v>
+        <v>142</v>
       </c>
       <c r="P8">
-        <v>1031</v>
+        <v>368</v>
       </c>
       <c r="Q8">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="R8">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="S8">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="T8">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="U8">
-        <v>516</v>
+        <v>158</v>
       </c>
       <c r="V8">
-        <v>1075</v>
+        <v>379</v>
       </c>
       <c r="W8">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="X8">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.582</v>
+        <v>0.551</v>
       </c>
       <c r="Z8">
-        <v>15.1</v>
+        <v>19</v>
       </c>
       <c r="AA8">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="AB8">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD8" t="s">
         <v>174</v>
@@ -1637,76 +1634,76 @@
         <v>25</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="H9">
-        <v>13172</v>
+        <v>1854</v>
       </c>
       <c r="I9">
-        <v>2305</v>
+        <v>261</v>
       </c>
       <c r="J9">
-        <v>5008</v>
+        <v>576</v>
       </c>
       <c r="K9">
-        <v>872</v>
+        <v>91</v>
       </c>
       <c r="L9">
-        <v>2215</v>
+        <v>256</v>
       </c>
       <c r="M9">
-        <v>1088</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>1268</v>
+        <v>106</v>
       </c>
       <c r="O9">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="P9">
-        <v>1607</v>
+        <v>213</v>
       </c>
       <c r="Q9">
-        <v>689</v>
+        <v>68</v>
       </c>
       <c r="R9">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="S9">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="T9">
-        <v>723</v>
+        <v>78</v>
       </c>
       <c r="U9">
-        <v>746</v>
+        <v>104</v>
       </c>
       <c r="V9">
-        <v>6570</v>
+        <v>700</v>
       </c>
       <c r="W9">
-        <v>0.46</v>
+        <v>0.453</v>
       </c>
       <c r="X9">
-        <v>0.394</v>
+        <v>0.355</v>
       </c>
       <c r="Y9">
-        <v>0.858</v>
+        <v>0.821</v>
       </c>
       <c r="Z9">
-        <v>28.5</v>
+        <v>23.8</v>
       </c>
       <c r="AA9">
-        <v>14.2</v>
+        <v>9</v>
       </c>
       <c r="AB9">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC9">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD9" t="s">
         <v>174</v>
@@ -1821,76 +1818,76 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>1794</v>
+        <v>781</v>
       </c>
       <c r="I11">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J11">
-        <v>539</v>
+        <v>210</v>
       </c>
       <c r="K11">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="L11">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="N11">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="O11">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P11">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="Q11">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="R11">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="S11">
+        <v>12</v>
+      </c>
+      <c r="T11">
         <v>27</v>
       </c>
-      <c r="T11">
-        <v>83</v>
-      </c>
       <c r="U11">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="V11">
-        <v>584</v>
+        <v>216</v>
       </c>
       <c r="W11">
-        <v>0.38</v>
+        <v>0.362</v>
       </c>
       <c r="X11">
-        <v>0.295</v>
+        <v>0.266</v>
       </c>
       <c r="Y11">
-        <v>0.781</v>
+        <v>0.825</v>
       </c>
       <c r="Z11">
-        <v>15.9</v>
+        <v>16.6</v>
       </c>
       <c r="AA11">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="AB11">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AC11">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD11" t="s">
         <v>174</v>
@@ -1913,76 +1910,73 @@
         <v>19</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>1233</v>
+        <v>23</v>
       </c>
       <c r="I12">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="U12">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>407</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>0.397</v>
+        <v>0.333</v>
       </c>
       <c r="X12">
-        <v>0.314</v>
-      </c>
-      <c r="Y12">
-        <v>0.836</v>
+        <v>0.667</v>
       </c>
       <c r="Z12">
-        <v>12.8</v>
+        <v>2.9</v>
       </c>
       <c r="AA12">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="AB12">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="AC12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="s">
         <v>174</v>
@@ -2005,76 +1999,73 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>8674</v>
+        <v>90</v>
       </c>
       <c r="I13">
-        <v>1766</v>
+        <v>14</v>
       </c>
       <c r="J13">
-        <v>2785</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>23</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>36</v>
+      </c>
+      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>543</v>
-      </c>
-      <c r="N13">
-        <v>1033</v>
-      </c>
-      <c r="O13">
-        <v>1089</v>
-      </c>
-      <c r="P13">
-        <v>3243</v>
-      </c>
-      <c r="Q13">
-        <v>324</v>
-      </c>
       <c r="R13">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>491</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>412</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>838</v>
+        <v>14</v>
       </c>
       <c r="V13">
-        <v>4075</v>
+        <v>32</v>
       </c>
       <c r="W13">
-        <v>0.634</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="Y13">
-        <v>0.526</v>
+        <v>0.174</v>
       </c>
       <c r="Z13">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AA13">
-        <v>12.2</v>
+        <v>2.7</v>
       </c>
       <c r="AB13">
-        <v>9.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AD13" t="s">
         <v>174</v>
@@ -2278,76 +2269,76 @@
         <v>22</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>446</v>
+        <v>59</v>
       </c>
       <c r="H16">
-        <v>12086</v>
+        <v>1476</v>
       </c>
       <c r="I16">
-        <v>2536</v>
+        <v>267</v>
       </c>
       <c r="J16">
-        <v>5669</v>
+        <v>596</v>
       </c>
       <c r="K16">
-        <v>653</v>
+        <v>38</v>
       </c>
       <c r="L16">
-        <v>1921</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>871</v>
+        <v>131</v>
       </c>
       <c r="N16">
-        <v>1064</v>
+        <v>158</v>
       </c>
       <c r="O16">
-        <v>384</v>
+        <v>56</v>
       </c>
       <c r="P16">
-        <v>1409</v>
+        <v>191</v>
       </c>
       <c r="Q16">
-        <v>1155</v>
+        <v>206</v>
       </c>
       <c r="R16">
-        <v>387</v>
+        <v>51</v>
       </c>
       <c r="S16">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="T16">
-        <v>741</v>
+        <v>96</v>
       </c>
       <c r="U16">
-        <v>739</v>
+        <v>109</v>
       </c>
       <c r="V16">
-        <v>6596</v>
+        <v>703</v>
       </c>
       <c r="W16">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="X16">
-        <v>0.34</v>
+        <v>0.314</v>
       </c>
       <c r="Y16">
-        <v>0.819</v>
+        <v>0.829</v>
       </c>
       <c r="Z16">
-        <v>27.1</v>
+        <v>25</v>
       </c>
       <c r="AA16">
-        <v>14.8</v>
+        <v>11.9</v>
       </c>
       <c r="AB16">
         <v>3.2</v>
       </c>
       <c r="AC16">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="s">
         <v>174</v>
@@ -2370,20 +2361,20 @@
         <v>23</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
         <v>22</v>
       </c>
-      <c r="J17">
-        <v>49</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
@@ -2391,52 +2382,52 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N17">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="O17">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P17">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S17">
         <v>3</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="V17">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="W17">
-        <v>0.449</v>
+        <v>0.409</v>
       </c>
       <c r="Y17">
-        <v>0.575</v>
+        <v>0.429</v>
       </c>
       <c r="Z17">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="AA17">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="AB17">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC17">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="s">
         <v>174</v>
@@ -2459,25 +2450,25 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="I18">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J18">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K18">
         <v>7</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M18">
         <v>15</v>
@@ -2492,43 +2483,43 @@
         <v>18</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="U18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V18">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="W18">
-        <v>0.418</v>
+        <v>0.42</v>
       </c>
       <c r="X18">
-        <v>0.304</v>
+        <v>0.35</v>
       </c>
       <c r="Y18">
         <v>0.833</v>
       </c>
       <c r="Z18">
-        <v>8.6</v>
+        <v>10.6</v>
       </c>
       <c r="AA18">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AC18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="s">
         <v>174</v>
@@ -2640,76 +2631,76 @@
         <v>21</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>455</v>
+      </c>
+      <c r="I20">
+        <v>51</v>
+      </c>
+      <c r="J20">
+        <v>169</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>65</v>
+      </c>
+      <c r="M20">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>34</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>48</v>
+      </c>
+      <c r="Q20">
+        <v>104</v>
+      </c>
+      <c r="R20">
+        <v>19</v>
+      </c>
+      <c r="S20">
         <v>6</v>
       </c>
-      <c r="G20">
-        <v>317</v>
-      </c>
-      <c r="H20">
-        <v>8162</v>
-      </c>
-      <c r="I20">
-        <v>1318</v>
-      </c>
-      <c r="J20">
-        <v>3212</v>
-      </c>
-      <c r="K20">
-        <v>439</v>
-      </c>
-      <c r="L20">
-        <v>1379</v>
-      </c>
-      <c r="M20">
-        <v>1028</v>
-      </c>
-      <c r="N20">
-        <v>1296</v>
-      </c>
-      <c r="O20">
-        <v>133</v>
-      </c>
-      <c r="P20">
-        <v>875</v>
-      </c>
-      <c r="Q20">
-        <v>1578</v>
-      </c>
-      <c r="R20">
-        <v>214</v>
-      </c>
-      <c r="S20">
-        <v>90</v>
-      </c>
       <c r="T20">
-        <v>560</v>
+        <v>33</v>
       </c>
       <c r="U20">
-        <v>745</v>
+        <v>53</v>
       </c>
       <c r="V20">
-        <v>4103</v>
+        <v>145</v>
       </c>
       <c r="W20">
-        <v>0.41</v>
+        <v>0.302</v>
       </c>
       <c r="X20">
-        <v>0.318</v>
+        <v>0.185</v>
       </c>
       <c r="Y20">
-        <v>0.793</v>
+        <v>0.912</v>
       </c>
       <c r="Z20">
-        <v>25.7</v>
+        <v>13.4</v>
       </c>
       <c r="AA20">
-        <v>12.9</v>
+        <v>4.3</v>
       </c>
       <c r="AB20">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AC20">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="AD20" t="s">
         <v>174</v>
@@ -2824,25 +2815,25 @@
         <v>24</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="I22">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J22">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -2851,13 +2842,13 @@
         <v>3</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q22">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="R22">
         <v>6</v>
@@ -2866,34 +2857,34 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V22">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="W22">
-        <v>0.329</v>
+        <v>0.345</v>
       </c>
       <c r="X22">
-        <v>0.2</v>
+        <v>0.154</v>
       </c>
       <c r="Y22">
         <v>0.667</v>
       </c>
       <c r="Z22">
-        <v>13.1</v>
+        <v>18.3</v>
       </c>
       <c r="AA22">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC22">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD22" t="s">
         <v>174</v>
@@ -2916,76 +2907,76 @@
         <v>23</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>801</v>
+        <v>647</v>
       </c>
       <c r="I23">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J23">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="K23">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L23">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N23">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O23">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P23">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q23">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R23">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T23">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="U23">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="V23">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="W23">
-        <v>0.346</v>
+        <v>0.355</v>
       </c>
       <c r="X23">
-        <v>0.263</v>
+        <v>0.262</v>
       </c>
       <c r="Y23">
         <v>0.75</v>
       </c>
       <c r="Z23">
-        <v>14.3</v>
+        <v>16.6</v>
       </c>
       <c r="AA23">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB23">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD23" t="s">
         <v>174</v>
@@ -3008,76 +2999,76 @@
         <v>24</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>340</v>
+        <v>62</v>
       </c>
       <c r="H24">
-        <v>6793</v>
+        <v>1051</v>
       </c>
       <c r="I24">
-        <v>751</v>
+        <v>101</v>
       </c>
       <c r="J24">
-        <v>1655</v>
+        <v>247</v>
       </c>
       <c r="K24">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="L24">
-        <v>739</v>
+        <v>95</v>
       </c>
       <c r="M24">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="N24">
-        <v>517</v>
+        <v>94</v>
       </c>
       <c r="O24">
-        <v>335</v>
+        <v>51</v>
       </c>
       <c r="P24">
-        <v>1085</v>
+        <v>176</v>
       </c>
       <c r="Q24">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="R24">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="S24">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="T24">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="U24">
-        <v>677</v>
+        <v>89</v>
       </c>
       <c r="V24">
-        <v>2175</v>
+        <v>312</v>
       </c>
       <c r="W24">
-        <v>0.454</v>
+        <v>0.409</v>
       </c>
       <c r="X24">
-        <v>0.355</v>
+        <v>0.326</v>
       </c>
       <c r="Y24">
-        <v>0.795</v>
+        <v>0.84</v>
       </c>
       <c r="Z24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA24">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="AB24">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC24">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD24" t="s">
         <v>174</v>
@@ -3100,76 +3091,76 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>2336</v>
+        <v>411</v>
       </c>
       <c r="I25">
-        <v>320</v>
+        <v>52</v>
       </c>
       <c r="J25">
-        <v>763</v>
+        <v>144</v>
       </c>
       <c r="K25">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="L25">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>35</v>
+      </c>
+      <c r="Q25">
         <v>73</v>
       </c>
-      <c r="N25">
-        <v>95</v>
-      </c>
-      <c r="O25">
-        <v>48</v>
-      </c>
-      <c r="P25">
-        <v>250</v>
-      </c>
-      <c r="Q25">
-        <v>359</v>
-      </c>
       <c r="R25">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="S25">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="T25">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="U25">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="V25">
-        <v>779</v>
+        <v>121</v>
       </c>
       <c r="W25">
-        <v>0.419</v>
+        <v>0.361</v>
       </c>
       <c r="X25">
-        <v>0.317</v>
+        <v>0.279</v>
       </c>
       <c r="Y25">
-        <v>0.768</v>
+        <v>0.714</v>
       </c>
       <c r="Z25">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="AA25">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AB25">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AC25">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD25" t="s">
         <v>174</v>
@@ -3192,76 +3183,76 @@
         <v>19</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="H26">
-        <v>4429</v>
+        <v>1817</v>
       </c>
       <c r="I26">
-        <v>499</v>
+        <v>145</v>
       </c>
       <c r="J26">
-        <v>1226</v>
+        <v>416</v>
       </c>
       <c r="K26">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="L26">
-        <v>536</v>
+        <v>264</v>
       </c>
       <c r="M26">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="N26">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="O26">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="P26">
-        <v>424</v>
+        <v>131</v>
       </c>
       <c r="Q26">
-        <v>502</v>
+        <v>198</v>
       </c>
       <c r="R26">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="S26">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="T26">
-        <v>301</v>
+        <v>118</v>
       </c>
       <c r="U26">
-        <v>420</v>
+        <v>147</v>
       </c>
       <c r="V26">
-        <v>1366</v>
+        <v>393</v>
       </c>
       <c r="W26">
-        <v>0.407</v>
+        <v>0.349</v>
       </c>
       <c r="X26">
-        <v>0.308</v>
+        <v>0.314</v>
       </c>
       <c r="Y26">
-        <v>0.766</v>
+        <v>0.625</v>
       </c>
       <c r="Z26">
-        <v>18.5</v>
+        <v>22.2</v>
       </c>
       <c r="AA26">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="AB26">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AC26">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD26" t="s">
         <v>174</v>
@@ -3284,76 +3275,76 @@
         <v>24</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>239</v>
+      </c>
+      <c r="I27">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>61</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>17</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>21</v>
+      </c>
+      <c r="O27">
         <v>6</v>
       </c>
-      <c r="G27">
-        <v>272</v>
-      </c>
-      <c r="H27">
-        <v>4818</v>
-      </c>
-      <c r="I27">
-        <v>498</v>
-      </c>
-      <c r="J27">
-        <v>1221</v>
-      </c>
-      <c r="K27">
-        <v>125</v>
-      </c>
-      <c r="L27">
-        <v>380</v>
-      </c>
-      <c r="M27">
-        <v>244</v>
-      </c>
-      <c r="N27">
-        <v>332</v>
-      </c>
-      <c r="O27">
-        <v>134</v>
-      </c>
       <c r="P27">
-        <v>627</v>
+        <v>28</v>
       </c>
       <c r="Q27">
-        <v>1092</v>
+        <v>60</v>
       </c>
       <c r="R27">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="S27">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="U27">
-        <v>483</v>
+        <v>26</v>
       </c>
       <c r="V27">
-        <v>1365</v>
+        <v>57</v>
       </c>
       <c r="W27">
-        <v>0.408</v>
+        <v>0.344</v>
       </c>
       <c r="X27">
-        <v>0.329</v>
+        <v>0.294</v>
       </c>
       <c r="Y27">
-        <v>0.735</v>
+        <v>0.476</v>
       </c>
       <c r="Z27">
-        <v>17.7</v>
+        <v>21.7</v>
       </c>
       <c r="AA27">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AB27">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AC27">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AD27" t="s">
         <v>174</v>
@@ -3376,76 +3367,76 @@
         <v>23</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>9295</v>
+        <v>1457</v>
       </c>
       <c r="I28">
-        <v>1232</v>
+        <v>204</v>
       </c>
       <c r="J28">
-        <v>3113</v>
+        <v>511</v>
       </c>
       <c r="K28">
-        <v>601</v>
+        <v>62</v>
       </c>
       <c r="L28">
-        <v>1637</v>
+        <v>176</v>
       </c>
       <c r="M28">
-        <v>387</v>
+        <v>63</v>
       </c>
       <c r="N28">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="O28">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="P28">
-        <v>1046</v>
+        <v>190</v>
       </c>
       <c r="Q28">
-        <v>694</v>
+        <v>150</v>
       </c>
       <c r="R28">
-        <v>295</v>
+        <v>52</v>
       </c>
       <c r="S28">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="T28">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="U28">
-        <v>672</v>
+        <v>129</v>
       </c>
       <c r="V28">
-        <v>3452</v>
+        <v>533</v>
       </c>
       <c r="W28">
-        <v>0.396</v>
+        <v>0.399</v>
       </c>
       <c r="X28">
-        <v>0.367</v>
+        <v>0.352</v>
       </c>
       <c r="Y28">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Z28">
-        <v>23</v>
+        <v>32.4</v>
       </c>
       <c r="AA28">
-        <v>8.5</v>
+        <v>11.8</v>
       </c>
       <c r="AB28">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="AC28">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="AD28" t="s">
         <v>174</v>
@@ -3468,76 +3459,76 @@
         <v>19</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>400</v>
+        <v>47</v>
       </c>
       <c r="H29">
-        <v>11440</v>
+        <v>797</v>
       </c>
       <c r="I29">
-        <v>1921</v>
+        <v>93</v>
       </c>
       <c r="J29">
-        <v>4294</v>
+        <v>208</v>
       </c>
       <c r="K29">
-        <v>436</v>
+        <v>13</v>
       </c>
       <c r="L29">
-        <v>1373</v>
+        <v>48</v>
       </c>
       <c r="M29">
-        <v>814</v>
+        <v>44</v>
       </c>
       <c r="N29">
-        <v>1160</v>
+        <v>61</v>
       </c>
       <c r="O29">
-        <v>635</v>
+        <v>46</v>
       </c>
       <c r="P29">
-        <v>2564</v>
+        <v>169</v>
       </c>
       <c r="Q29">
-        <v>953</v>
+        <v>33</v>
       </c>
       <c r="R29">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="S29">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="T29">
-        <v>557</v>
+        <v>38</v>
       </c>
       <c r="U29">
-        <v>808</v>
+        <v>83</v>
       </c>
       <c r="V29">
-        <v>5092</v>
+        <v>243</v>
       </c>
       <c r="W29">
         <v>0.447</v>
       </c>
       <c r="X29">
-        <v>0.318</v>
+        <v>0.271</v>
       </c>
       <c r="Y29">
-        <v>0.702</v>
+        <v>0.721</v>
       </c>
       <c r="Z29">
-        <v>28.6</v>
+        <v>17</v>
       </c>
       <c r="AA29">
-        <v>12.7</v>
+        <v>5.2</v>
       </c>
       <c r="AB29">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="AC29">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD29" t="s">
         <v>174</v>
@@ -3652,76 +3643,76 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>447</v>
+        <v>65</v>
       </c>
       <c r="H31">
-        <v>10909</v>
+        <v>1377</v>
       </c>
       <c r="I31">
-        <v>1443</v>
+        <v>124</v>
       </c>
       <c r="J31">
-        <v>3116</v>
+        <v>352</v>
       </c>
       <c r="K31">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="L31">
-        <v>1041</v>
+        <v>156</v>
       </c>
       <c r="M31">
-        <v>863</v>
+        <v>114</v>
       </c>
       <c r="N31">
-        <v>1295</v>
+        <v>193</v>
       </c>
       <c r="O31">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="P31">
-        <v>1727</v>
+        <v>198</v>
       </c>
       <c r="Q31">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="R31">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="S31">
-        <v>503</v>
+        <v>68</v>
       </c>
       <c r="T31">
-        <v>415</v>
+        <v>85</v>
       </c>
       <c r="U31">
-        <v>1018</v>
+        <v>144</v>
       </c>
       <c r="V31">
-        <v>4111</v>
+        <v>411</v>
       </c>
       <c r="W31">
-        <v>0.463</v>
+        <v>0.352</v>
       </c>
       <c r="X31">
-        <v>0.348</v>
+        <v>0.314</v>
       </c>
       <c r="Y31">
-        <v>0.666</v>
+        <v>0.591</v>
       </c>
       <c r="Z31">
-        <v>24.4</v>
+        <v>21.2</v>
       </c>
       <c r="AA31">
-        <v>9.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="AB31">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="AC31">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD31" t="s">
         <v>174</v>
@@ -3744,43 +3735,43 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H32">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="I32">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J32">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
         <v>12</v>
       </c>
-      <c r="N32">
-        <v>14</v>
-      </c>
       <c r="O32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P32">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -3789,31 +3780,31 @@
         <v>14</v>
       </c>
       <c r="U32">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V32">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="W32">
         <v>0.377</v>
       </c>
       <c r="X32">
-        <v>0.288</v>
+        <v>0.298</v>
       </c>
       <c r="Y32">
-        <v>0.857</v>
+        <v>0.833</v>
       </c>
       <c r="Z32">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AA32">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB32">
         <v>0.7</v>
       </c>
       <c r="AC32">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD32" t="s">
         <v>174</v>
@@ -3836,76 +3827,76 @@
         <v>24</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>164</v>
+      </c>
+      <c r="I33">
+        <v>27</v>
+      </c>
+      <c r="J33">
+        <v>47</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>6</v>
       </c>
-      <c r="G33">
-        <v>355</v>
-      </c>
-      <c r="H33">
-        <v>7782</v>
-      </c>
-      <c r="I33">
-        <v>1088</v>
-      </c>
-      <c r="J33">
-        <v>2314</v>
-      </c>
-      <c r="K33">
-        <v>260</v>
-      </c>
-      <c r="L33">
-        <v>707</v>
-      </c>
       <c r="M33">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="N33">
-        <v>570</v>
+        <v>10</v>
       </c>
       <c r="O33">
-        <v>651</v>
+        <v>19</v>
       </c>
       <c r="P33">
-        <v>2187</v>
+        <v>45</v>
       </c>
       <c r="Q33">
-        <v>327</v>
+        <v>4</v>
       </c>
       <c r="R33">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="S33">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="T33">
-        <v>399</v>
+        <v>14</v>
       </c>
       <c r="U33">
-        <v>959</v>
+        <v>25</v>
       </c>
       <c r="V33">
-        <v>2873</v>
+        <v>62</v>
       </c>
       <c r="W33">
-        <v>0.47</v>
+        <v>0.574</v>
       </c>
       <c r="X33">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>0.767</v>
+        <v>0.8</v>
       </c>
       <c r="Z33">
-        <v>21.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA33">
-        <v>8.1</v>
+        <v>2.6</v>
       </c>
       <c r="AB33">
-        <v>6.2</v>
+        <v>1.9</v>
       </c>
       <c r="AC33">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD33" t="s">
         <v>174</v>
@@ -3928,73 +3919,73 @@
         <v>22</v>
       </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>45</v>
+      </c>
+      <c r="H34">
+        <v>687</v>
+      </c>
+      <c r="I34">
+        <v>87</v>
+      </c>
+      <c r="J34">
+        <v>269</v>
+      </c>
+      <c r="K34">
+        <v>49</v>
+      </c>
+      <c r="L34">
+        <v>163</v>
+      </c>
+      <c r="M34">
+        <v>31</v>
+      </c>
+      <c r="N34">
+        <v>36</v>
+      </c>
+      <c r="O34">
+        <v>22</v>
+      </c>
+      <c r="P34">
+        <v>92</v>
+      </c>
+      <c r="Q34">
+        <v>21</v>
+      </c>
+      <c r="R34">
+        <v>21</v>
+      </c>
+      <c r="S34">
+        <v>13</v>
+      </c>
+      <c r="T34">
+        <v>22</v>
+      </c>
+      <c r="U34">
+        <v>61</v>
+      </c>
+      <c r="V34">
+        <v>254</v>
+      </c>
+      <c r="W34">
+        <v>0.323</v>
+      </c>
+      <c r="X34">
+        <v>0.301</v>
+      </c>
+      <c r="Y34">
+        <v>0.861</v>
+      </c>
+      <c r="Z34">
+        <v>15.3</v>
+      </c>
+      <c r="AA34">
+        <v>5.6</v>
+      </c>
+      <c r="AB34">
         <v>2</v>
-      </c>
-      <c r="G34">
-        <v>111</v>
-      </c>
-      <c r="H34">
-        <v>2000</v>
-      </c>
-      <c r="I34">
-        <v>232</v>
-      </c>
-      <c r="J34">
-        <v>677</v>
-      </c>
-      <c r="K34">
-        <v>119</v>
-      </c>
-      <c r="L34">
-        <v>404</v>
-      </c>
-      <c r="M34">
-        <v>81</v>
-      </c>
-      <c r="N34">
-        <v>100</v>
-      </c>
-      <c r="O34">
-        <v>47</v>
-      </c>
-      <c r="P34">
-        <v>266</v>
-      </c>
-      <c r="Q34">
-        <v>59</v>
-      </c>
-      <c r="R34">
-        <v>53</v>
-      </c>
-      <c r="S34">
-        <v>24</v>
-      </c>
-      <c r="T34">
-        <v>63</v>
-      </c>
-      <c r="U34">
-        <v>198</v>
-      </c>
-      <c r="V34">
-        <v>664</v>
-      </c>
-      <c r="W34">
-        <v>0.343</v>
-      </c>
-      <c r="X34">
-        <v>0.295</v>
-      </c>
-      <c r="Y34">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z34">
-        <v>18</v>
-      </c>
-      <c r="AA34">
-        <v>6</v>
-      </c>
-      <c r="AB34">
-        <v>2.4</v>
       </c>
       <c r="AC34">
         <v>0.5</v>
@@ -4020,76 +4011,76 @@
         <v>20</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>368</v>
+        <v>55</v>
       </c>
       <c r="H35">
-        <v>10663</v>
+        <v>719</v>
       </c>
       <c r="I35">
-        <v>1673</v>
+        <v>66</v>
       </c>
       <c r="J35">
-        <v>3683</v>
+        <v>217</v>
       </c>
       <c r="K35">
-        <v>541</v>
+        <v>21</v>
       </c>
       <c r="L35">
-        <v>1501</v>
+        <v>103</v>
       </c>
       <c r="M35">
-        <v>572</v>
+        <v>35</v>
       </c>
       <c r="N35">
-        <v>712</v>
+        <v>47</v>
       </c>
       <c r="O35">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="P35">
-        <v>961</v>
+        <v>64</v>
       </c>
       <c r="Q35">
-        <v>779</v>
+        <v>29</v>
       </c>
       <c r="R35">
-        <v>460</v>
+        <v>39</v>
       </c>
       <c r="S35">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="T35">
-        <v>459</v>
+        <v>38</v>
       </c>
       <c r="U35">
-        <v>654</v>
+        <v>71</v>
       </c>
       <c r="V35">
-        <v>4459</v>
+        <v>188</v>
       </c>
       <c r="W35">
-        <v>0.454</v>
+        <v>0.304</v>
       </c>
       <c r="X35">
-        <v>0.36</v>
+        <v>0.204</v>
       </c>
       <c r="Y35">
-        <v>0.803</v>
+        <v>0.745</v>
       </c>
       <c r="Z35">
-        <v>29</v>
+        <v>13.1</v>
       </c>
       <c r="AA35">
-        <v>12.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB35">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AC35">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD35" t="s">
         <v>174</v>
@@ -4112,76 +4103,76 @@
         <v>23</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>326</v>
+        <v>51</v>
       </c>
       <c r="H36">
-        <v>7889</v>
+        <v>493</v>
       </c>
       <c r="I36">
-        <v>1220</v>
+        <v>48</v>
       </c>
       <c r="J36">
-        <v>2571</v>
+        <v>120</v>
       </c>
       <c r="K36">
-        <v>604</v>
+        <v>31</v>
       </c>
       <c r="L36">
-        <v>1428</v>
+        <v>84</v>
       </c>
       <c r="M36">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>385</v>
+        <v>15</v>
       </c>
       <c r="O36">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="P36">
-        <v>1018</v>
+        <v>41</v>
       </c>
       <c r="Q36">
-        <v>523</v>
+        <v>26</v>
       </c>
       <c r="R36">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="S36">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>390</v>
+        <v>27</v>
       </c>
       <c r="U36">
-        <v>659</v>
+        <v>62</v>
       </c>
       <c r="V36">
-        <v>3346</v>
+        <v>136</v>
       </c>
       <c r="W36">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="X36">
-        <v>0.423</v>
+        <v>0.369</v>
       </c>
       <c r="Y36">
-        <v>0.784</v>
+        <v>0.6</v>
       </c>
       <c r="Z36">
-        <v>24.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA36">
-        <v>10.3</v>
+        <v>2.7</v>
       </c>
       <c r="AB36">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC36">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD36" t="s">
         <v>174</v>
@@ -4204,76 +4195,76 @@
         <v>22</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>341</v>
+        <v>50</v>
       </c>
       <c r="H37">
-        <v>9326</v>
+        <v>1064</v>
       </c>
       <c r="I37">
-        <v>1536</v>
+        <v>155</v>
       </c>
       <c r="J37">
-        <v>3606</v>
+        <v>374</v>
       </c>
       <c r="K37">
-        <v>583</v>
+        <v>62</v>
       </c>
       <c r="L37">
-        <v>1566</v>
+        <v>170</v>
       </c>
       <c r="M37">
-        <v>592</v>
+        <v>61</v>
       </c>
       <c r="N37">
-        <v>706</v>
+        <v>80</v>
       </c>
       <c r="O37">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="P37">
-        <v>980</v>
+        <v>117</v>
       </c>
       <c r="Q37">
-        <v>645</v>
+        <v>83</v>
       </c>
       <c r="R37">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="S37">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="T37">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="U37">
-        <v>750</v>
+        <v>119</v>
       </c>
       <c r="V37">
-        <v>4247</v>
+        <v>433</v>
       </c>
       <c r="W37">
-        <v>0.426</v>
+        <v>0.414</v>
       </c>
       <c r="X37">
-        <v>0.372</v>
+        <v>0.365</v>
       </c>
       <c r="Y37">
-        <v>0.839</v>
+        <v>0.763</v>
       </c>
       <c r="Z37">
-        <v>27.3</v>
+        <v>21.3</v>
       </c>
       <c r="AA37">
-        <v>12.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB37">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="AC37">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD37" t="s">
         <v>174</v>
@@ -4296,76 +4287,76 @@
         <v>27</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="H38">
-        <v>11980</v>
+        <v>1673</v>
       </c>
       <c r="I38">
-        <v>1391</v>
+        <v>147</v>
       </c>
       <c r="J38">
-        <v>3117</v>
+        <v>354</v>
       </c>
       <c r="K38">
-        <v>793</v>
+        <v>72</v>
       </c>
       <c r="L38">
-        <v>1951</v>
+        <v>202</v>
       </c>
       <c r="M38">
-        <v>315</v>
+        <v>30</v>
       </c>
       <c r="N38">
-        <v>421</v>
+        <v>40</v>
       </c>
       <c r="O38">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="P38">
-        <v>1520</v>
+        <v>175</v>
       </c>
       <c r="Q38">
-        <v>1697</v>
+        <v>182</v>
       </c>
       <c r="R38">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="S38">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="T38">
-        <v>751</v>
+        <v>98</v>
       </c>
       <c r="U38">
-        <v>882</v>
+        <v>124</v>
       </c>
       <c r="V38">
-        <v>3890</v>
+        <v>396</v>
       </c>
       <c r="W38">
-        <v>0.446</v>
+        <v>0.415</v>
       </c>
       <c r="X38">
-        <v>0.406</v>
+        <v>0.356</v>
       </c>
       <c r="Y38">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="Z38">
-        <v>25.4</v>
+        <v>21.2</v>
       </c>
       <c r="AA38">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="AB38">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="AC38">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD38" t="s">
         <v>174</v>
@@ -4388,37 +4379,37 @@
         <v>24</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="I39">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J39">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K39">
         <v>2</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N39">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O39">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P39">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>16</v>
@@ -4427,34 +4418,34 @@
         <v>10</v>
       </c>
       <c r="S39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T39">
         <v>20</v>
       </c>
       <c r="U39">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="V39">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="W39">
-        <v>0.444</v>
+        <v>0.449</v>
       </c>
       <c r="X39">
-        <v>0.125</v>
+        <v>0.133</v>
       </c>
       <c r="Y39">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="Z39">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="AA39">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB39">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC39">
         <v>0.3</v>
@@ -4664,76 +4655,76 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>7759</v>
+        <v>603</v>
       </c>
       <c r="I42">
-        <v>1138</v>
+        <v>70</v>
       </c>
       <c r="J42">
-        <v>2650</v>
+        <v>167</v>
       </c>
       <c r="K42">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="L42">
-        <v>1040</v>
+        <v>48</v>
       </c>
       <c r="M42">
-        <v>509</v>
+        <v>32</v>
       </c>
       <c r="N42">
-        <v>659</v>
+        <v>47</v>
       </c>
       <c r="O42">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="P42">
-        <v>958</v>
+        <v>81</v>
       </c>
       <c r="Q42">
-        <v>739</v>
+        <v>42</v>
       </c>
       <c r="R42">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="S42">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="T42">
-        <v>349</v>
+        <v>30</v>
       </c>
       <c r="U42">
-        <v>575</v>
+        <v>42</v>
       </c>
       <c r="V42">
-        <v>3157</v>
+        <v>190</v>
       </c>
       <c r="W42">
-        <v>0.429</v>
+        <v>0.419</v>
       </c>
       <c r="X42">
-        <v>0.358</v>
+        <v>0.375</v>
       </c>
       <c r="Y42">
-        <v>0.772</v>
+        <v>0.681</v>
       </c>
       <c r="Z42">
-        <v>25.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA42">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB42">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AC42">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD42" t="s">
         <v>174</v>
@@ -4756,76 +4747,76 @@
         <v>25</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>4</v>
       </c>
-      <c r="G43">
-        <v>157</v>
-      </c>
       <c r="H43">
-        <v>3082</v>
+        <v>72</v>
       </c>
       <c r="I43">
-        <v>545</v>
+        <v>7</v>
       </c>
       <c r="J43">
-        <v>1319</v>
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>579</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>332</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>385</v>
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>429</v>
+        <v>6</v>
       </c>
       <c r="Q43">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="R43">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="V43">
-        <v>1616</v>
+        <v>22</v>
       </c>
       <c r="W43">
-        <v>0.413</v>
+        <v>0.35</v>
       </c>
       <c r="X43">
-        <v>0.335</v>
+        <v>0.308</v>
       </c>
       <c r="Y43">
-        <v>0.862</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>19.6</v>
+        <v>18</v>
       </c>
       <c r="AA43">
-        <v>10.3</v>
+        <v>5.5</v>
       </c>
       <c r="AB43">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="AC43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="s">
         <v>174</v>
@@ -4937,76 +4928,76 @@
         <v>23</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="H45">
-        <v>2823</v>
+        <v>268</v>
       </c>
       <c r="I45">
-        <v>477</v>
+        <v>36</v>
       </c>
       <c r="J45">
-        <v>995</v>
+        <v>89</v>
       </c>
       <c r="K45">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="N45">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="O45">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="P45">
-        <v>789</v>
+        <v>77</v>
       </c>
       <c r="Q45">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="R45">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="S45">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="T45">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="U45">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="V45">
-        <v>1159</v>
+        <v>93</v>
       </c>
       <c r="W45">
-        <v>0.479</v>
+        <v>0.404</v>
       </c>
       <c r="X45">
-        <v>0.285</v>
+        <v>0.188</v>
       </c>
       <c r="Y45">
-        <v>0.719</v>
+        <v>0.643</v>
       </c>
       <c r="Z45">
-        <v>13.6</v>
+        <v>11.2</v>
       </c>
       <c r="AA45">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB45">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AC45">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD45" t="s">
         <v>174</v>
@@ -5029,73 +5020,73 @@
         <v>19</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="H46">
-        <v>10857</v>
+        <v>1902</v>
       </c>
       <c r="I46">
-        <v>2250</v>
+        <v>286</v>
       </c>
       <c r="J46">
-        <v>5035</v>
+        <v>677</v>
       </c>
       <c r="K46">
-        <v>646</v>
+        <v>57</v>
       </c>
       <c r="L46">
-        <v>1721</v>
+        <v>167</v>
       </c>
       <c r="M46">
-        <v>1094</v>
+        <v>149</v>
       </c>
       <c r="N46">
-        <v>1336</v>
+        <v>177</v>
       </c>
       <c r="O46">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="P46">
-        <v>1279</v>
+        <v>214</v>
       </c>
       <c r="Q46">
-        <v>1275</v>
+        <v>276</v>
       </c>
       <c r="R46">
-        <v>336</v>
+        <v>54</v>
       </c>
       <c r="S46">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="T46">
-        <v>897</v>
+        <v>193</v>
       </c>
       <c r="U46">
-        <v>781</v>
+        <v>158</v>
       </c>
       <c r="V46">
-        <v>6240</v>
+        <v>778</v>
       </c>
       <c r="W46">
-        <v>0.447</v>
+        <v>0.422</v>
       </c>
       <c r="X46">
-        <v>0.375</v>
+        <v>0.341</v>
       </c>
       <c r="Y46">
-        <v>0.819</v>
+        <v>0.842</v>
       </c>
       <c r="Z46">
-        <v>30.8</v>
+        <v>24.7</v>
       </c>
       <c r="AA46">
-        <v>17.7</v>
+        <v>10.1</v>
       </c>
       <c r="AB46">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="AC46">
         <v>3.6</v>
@@ -5121,40 +5112,40 @@
         <v>25</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -5166,31 +5157,25 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
       </c>
       <c r="Z47">
         <v>6</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="s">
         <v>174</v>
@@ -5213,76 +5198,76 @@
         <v>22</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>208</v>
+      </c>
+      <c r="I48">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>44</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>22</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>16</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>31</v>
+      </c>
+      <c r="Q48">
+        <v>17</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
         <v>2</v>
       </c>
-      <c r="G48">
-        <v>44</v>
-      </c>
-      <c r="H48">
-        <v>457</v>
-      </c>
-      <c r="I48">
-        <v>35</v>
-      </c>
-      <c r="J48">
-        <v>115</v>
-      </c>
-      <c r="K48">
-        <v>12</v>
-      </c>
-      <c r="L48">
-        <v>54</v>
-      </c>
-      <c r="M48">
-        <v>15</v>
-      </c>
-      <c r="N48">
-        <v>40</v>
-      </c>
-      <c r="O48">
-        <v>11</v>
-      </c>
-      <c r="P48">
-        <v>69</v>
-      </c>
-      <c r="Q48">
-        <v>29</v>
-      </c>
-      <c r="R48">
-        <v>22</v>
-      </c>
-      <c r="S48">
-        <v>3</v>
-      </c>
       <c r="T48">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="U48">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="V48">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="W48">
-        <v>0.304</v>
+        <v>0.318</v>
       </c>
       <c r="X48">
-        <v>0.222</v>
+        <v>0.182</v>
       </c>
       <c r="Y48">
-        <v>0.375</v>
+        <v>0.313</v>
       </c>
       <c r="Z48">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="AA48">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AB48">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AC48">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD48" t="s">
         <v>174</v>
@@ -5305,76 +5290,73 @@
         <v>22</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="H49">
-        <v>874</v>
+        <v>137</v>
       </c>
       <c r="I49">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="J49">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>25</v>
+      </c>
+      <c r="O49">
+        <v>15</v>
+      </c>
+      <c r="P49">
+        <v>37</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
         <v>5</v>
       </c>
-      <c r="L49">
-        <v>17</v>
-      </c>
-      <c r="M49">
-        <v>63</v>
-      </c>
-      <c r="N49">
-        <v>118</v>
-      </c>
-      <c r="O49">
-        <v>79</v>
-      </c>
-      <c r="P49">
-        <v>188</v>
-      </c>
-      <c r="Q49">
-        <v>37</v>
-      </c>
-      <c r="R49">
-        <v>33</v>
-      </c>
       <c r="S49">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="T49">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="U49">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="V49">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="W49">
-        <v>0.528</v>
-      </c>
-      <c r="X49">
-        <v>0.294</v>
+        <v>0.545</v>
       </c>
       <c r="Y49">
-        <v>0.534</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z49">
-        <v>7.9</v>
+        <v>9.1</v>
       </c>
       <c r="AA49">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="AB49">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC49">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD49" t="s">
         <v>174</v>
@@ -5397,76 +5379,76 @@
         <v>21</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="H50">
-        <v>2092</v>
+        <v>1352</v>
       </c>
       <c r="I50">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="J50">
-        <v>675</v>
+        <v>434</v>
       </c>
       <c r="K50">
+        <v>43</v>
+      </c>
+      <c r="L50">
+        <v>150</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50">
+        <v>133</v>
+      </c>
+      <c r="O50">
+        <v>65</v>
+      </c>
+      <c r="P50">
+        <v>200</v>
+      </c>
+      <c r="Q50">
+        <v>72</v>
+      </c>
+      <c r="R50">
+        <v>44</v>
+      </c>
+      <c r="S50">
         <v>70</v>
       </c>
-      <c r="L50">
-        <v>241</v>
-      </c>
-      <c r="M50">
-        <v>156</v>
-      </c>
-      <c r="N50">
-        <v>201</v>
-      </c>
-      <c r="O50">
-        <v>96</v>
-      </c>
-      <c r="P50">
-        <v>324</v>
-      </c>
-      <c r="Q50">
-        <v>95</v>
-      </c>
-      <c r="R50">
-        <v>70</v>
-      </c>
-      <c r="S50">
-        <v>94</v>
-      </c>
       <c r="T50">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="U50">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="V50">
-        <v>782</v>
+        <v>487</v>
       </c>
       <c r="W50">
-        <v>0.412</v>
+        <v>0.396</v>
       </c>
       <c r="X50">
-        <v>0.29</v>
+        <v>0.287</v>
       </c>
       <c r="Y50">
-        <v>0.776</v>
+        <v>0.752</v>
       </c>
       <c r="Z50">
-        <v>14.1</v>
+        <v>21.8</v>
       </c>
       <c r="AA50">
-        <v>5.3</v>
+        <v>7.9</v>
       </c>
       <c r="AB50">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="AC50">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD50" t="s">
         <v>174</v>
@@ -5489,76 +5471,76 @@
         <v>23</v>
       </c>
       <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>36</v>
+      </c>
+      <c r="H51">
+        <v>321</v>
+      </c>
+      <c r="I51">
+        <v>43</v>
+      </c>
+      <c r="J51">
+        <v>107</v>
+      </c>
+      <c r="K51">
+        <v>13</v>
+      </c>
+      <c r="L51">
+        <v>41</v>
+      </c>
+      <c r="M51">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>15</v>
+      </c>
+      <c r="O51">
         <v>6</v>
       </c>
-      <c r="G51">
-        <v>403</v>
-      </c>
-      <c r="H51">
-        <v>8040</v>
-      </c>
-      <c r="I51">
-        <v>1241</v>
-      </c>
-      <c r="J51">
-        <v>2669</v>
-      </c>
-      <c r="K51">
-        <v>494</v>
-      </c>
-      <c r="L51">
-        <v>1195</v>
-      </c>
-      <c r="M51">
-        <v>326</v>
-      </c>
-      <c r="N51">
-        <v>395</v>
-      </c>
-      <c r="O51">
-        <v>143</v>
-      </c>
       <c r="P51">
-        <v>882</v>
+        <v>43</v>
       </c>
       <c r="Q51">
-        <v>339</v>
+        <v>6</v>
       </c>
       <c r="R51">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="S51">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="U51">
-        <v>567</v>
+        <v>29</v>
       </c>
       <c r="V51">
-        <v>3302</v>
+        <v>109</v>
       </c>
       <c r="W51">
-        <v>0.465</v>
+        <v>0.402</v>
       </c>
       <c r="X51">
-        <v>0.413</v>
+        <v>0.317</v>
       </c>
       <c r="Y51">
-        <v>0.825</v>
+        <v>0.667</v>
       </c>
       <c r="Z51">
-        <v>20</v>
+        <v>8.9</v>
       </c>
       <c r="AA51">
-        <v>8.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="AB51">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AC51">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD51" t="s">
         <v>174</v>
@@ -5581,76 +5563,76 @@
         <v>22</v>
       </c>
       <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>32</v>
+      </c>
+      <c r="H52">
+        <v>485</v>
+      </c>
+      <c r="I52">
+        <v>88</v>
+      </c>
+      <c r="J52">
+        <v>165</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>2</v>
       </c>
-      <c r="G52">
-        <v>52</v>
-      </c>
-      <c r="H52">
-        <v>557</v>
-      </c>
-      <c r="I52">
-        <v>99</v>
-      </c>
-      <c r="J52">
-        <v>188</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>6</v>
-      </c>
       <c r="M52">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N52">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O52">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P52">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T52">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="U52">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="V52">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="W52">
-        <v>0.527</v>
+        <v>0.533</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>0.58</v>
+        <v>0.625</v>
       </c>
       <c r="Z52">
-        <v>10.7</v>
+        <v>15.2</v>
       </c>
       <c r="AA52">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB52">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="AC52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD52" t="s">
         <v>174</v>
@@ -5765,76 +5747,76 @@
         <v>27</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H54">
-        <v>1120</v>
+        <v>924</v>
       </c>
       <c r="I54">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J54">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="K54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L54">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M54">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="N54">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="O54">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="P54">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="Q54">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="R54">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S54">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="T54">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="U54">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="V54">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="W54">
-        <v>0.327</v>
+        <v>0.34</v>
       </c>
       <c r="X54">
-        <v>0.279</v>
+        <v>0.311</v>
       </c>
       <c r="Y54">
-        <v>0.679</v>
+        <v>0.674</v>
       </c>
       <c r="Z54">
-        <v>16.2</v>
+        <v>19.7</v>
       </c>
       <c r="AA54">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB54">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AC54">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD54" t="s">
         <v>174</v>
@@ -5857,76 +5839,76 @@
         <v>23</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="H55">
-        <v>7718</v>
+        <v>1654</v>
       </c>
       <c r="I55">
-        <v>1303</v>
+        <v>253</v>
       </c>
       <c r="J55">
-        <v>3084</v>
+        <v>624</v>
       </c>
       <c r="K55">
-        <v>614</v>
+        <v>99</v>
       </c>
       <c r="L55">
-        <v>1712</v>
+        <v>313</v>
       </c>
       <c r="M55">
-        <v>690</v>
+        <v>228</v>
       </c>
       <c r="N55">
-        <v>854</v>
+        <v>284</v>
       </c>
       <c r="O55">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="P55">
-        <v>1894</v>
+        <v>404</v>
       </c>
       <c r="Q55">
-        <v>407</v>
+        <v>97</v>
       </c>
       <c r="R55">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="S55">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="T55">
-        <v>381</v>
+        <v>89</v>
       </c>
       <c r="U55">
-        <v>666</v>
+        <v>172</v>
       </c>
       <c r="V55">
-        <v>3910</v>
+        <v>833</v>
       </c>
       <c r="W55">
-        <v>0.423</v>
+        <v>0.405</v>
       </c>
       <c r="X55">
-        <v>0.359</v>
+        <v>0.316</v>
       </c>
       <c r="Y55">
-        <v>0.8080000000000001</v>
+        <v>0.803</v>
       </c>
       <c r="Z55">
-        <v>24.2</v>
+        <v>20.2</v>
       </c>
       <c r="AA55">
-        <v>12.3</v>
+        <v>10.2</v>
       </c>
       <c r="AB55">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="AC55">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD55" t="s">
         <v>174</v>
@@ -5949,76 +5931,70 @@
         <v>23</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>898</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="V56">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>0.537</v>
-      </c>
-      <c r="X56">
-        <v>1</v>
-      </c>
-      <c r="Y56">
-        <v>0.394</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>10.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA56">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AB56">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="s">
         <v>174</v>
@@ -6041,73 +6017,73 @@
         <v>23</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>341</v>
+        <v>51</v>
       </c>
       <c r="H57">
-        <v>5903</v>
+        <v>1012</v>
       </c>
       <c r="I57">
-        <v>794</v>
+        <v>87</v>
       </c>
       <c r="J57">
-        <v>2004</v>
+        <v>228</v>
       </c>
       <c r="K57">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="L57">
-        <v>987</v>
+        <v>118</v>
       </c>
       <c r="M57">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="N57">
-        <v>570</v>
+        <v>56</v>
       </c>
       <c r="O57">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="P57">
-        <v>648</v>
+        <v>113</v>
       </c>
       <c r="Q57">
-        <v>843</v>
+        <v>130</v>
       </c>
       <c r="R57">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="S57">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="T57">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="U57">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="V57">
-        <v>2394</v>
+        <v>261</v>
       </c>
       <c r="W57">
-        <v>0.396</v>
+        <v>0.382</v>
       </c>
       <c r="X57">
-        <v>0.345</v>
+        <v>0.364</v>
       </c>
       <c r="Y57">
-        <v>0.8159999999999999</v>
+        <v>0.786</v>
       </c>
       <c r="Z57">
-        <v>17.3</v>
+        <v>19.8</v>
       </c>
       <c r="AA57">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="AB57">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AC57">
         <v>2.5</v>
@@ -6133,76 +6109,73 @@
         <v>20</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="H58">
-        <v>7864</v>
+        <v>2311</v>
       </c>
       <c r="I58">
-        <v>1183</v>
+        <v>302</v>
       </c>
       <c r="J58">
-        <v>2184</v>
+        <v>653</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>501</v>
+        <v>140</v>
       </c>
       <c r="N58">
-        <v>773</v>
+        <v>230</v>
       </c>
       <c r="O58">
-        <v>689</v>
+        <v>185</v>
       </c>
       <c r="P58">
-        <v>2211</v>
+        <v>611</v>
       </c>
       <c r="Q58">
-        <v>418</v>
+        <v>128</v>
       </c>
       <c r="R58">
-        <v>469</v>
+        <v>133</v>
       </c>
       <c r="S58">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="T58">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="U58">
-        <v>894</v>
+        <v>208</v>
       </c>
       <c r="V58">
-        <v>2869</v>
+        <v>744</v>
       </c>
       <c r="W58">
-        <v>0.542</v>
-      </c>
-      <c r="X58">
-        <v>0.286</v>
+        <v>0.462</v>
       </c>
       <c r="Y58">
-        <v>0.648</v>
+        <v>0.609</v>
       </c>
       <c r="Z58">
-        <v>22.2</v>
+        <v>30.8</v>
       </c>
       <c r="AA58">
+        <v>9.9</v>
+      </c>
+      <c r="AB58">
         <v>8.1</v>
       </c>
-      <c r="AB58">
-        <v>6.2</v>
-      </c>
       <c r="AC58">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD58" t="s">
         <v>174</v>
@@ -6225,76 +6198,73 @@
         <v>22</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>23</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
         <v>4</v>
       </c>
-      <c r="G59">
-        <v>141</v>
-      </c>
-      <c r="H59">
-        <v>1754</v>
-      </c>
-      <c r="I59">
-        <v>182</v>
-      </c>
-      <c r="J59">
-        <v>288</v>
-      </c>
-      <c r="K59">
-        <v>9</v>
-      </c>
-      <c r="L59">
-        <v>34</v>
-      </c>
-      <c r="M59">
-        <v>73</v>
-      </c>
-      <c r="N59">
-        <v>114</v>
-      </c>
       <c r="O59">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="P59">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="Q59">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="R59">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>221</v>
+        <v>6</v>
       </c>
       <c r="V59">
-        <v>446</v>
+        <v>6</v>
       </c>
       <c r="W59">
-        <v>0.632</v>
-      </c>
-      <c r="X59">
-        <v>0.265</v>
+        <v>0.25</v>
       </c>
       <c r="Y59">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="Z59">
-        <v>12.4</v>
+        <v>3.8</v>
       </c>
       <c r="AA59">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="AC59">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD59" t="s">
         <v>174</v>
@@ -6317,76 +6287,76 @@
         <v>20</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="H60">
-        <v>7136</v>
+        <v>1103</v>
       </c>
       <c r="I60">
-        <v>1448</v>
+        <v>171</v>
       </c>
       <c r="J60">
-        <v>2947</v>
+        <v>383</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>727</v>
+        <v>84</v>
       </c>
       <c r="N60">
-        <v>1087</v>
+        <v>132</v>
       </c>
       <c r="O60">
-        <v>778</v>
+        <v>125</v>
       </c>
       <c r="P60">
-        <v>2489</v>
+        <v>382</v>
       </c>
       <c r="Q60">
-        <v>594</v>
+        <v>50</v>
       </c>
       <c r="R60">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="S60">
-        <v>406</v>
+        <v>68</v>
       </c>
       <c r="T60">
-        <v>639</v>
+        <v>86</v>
       </c>
       <c r="U60">
-        <v>962</v>
+        <v>207</v>
       </c>
       <c r="V60">
-        <v>3626</v>
+        <v>426</v>
       </c>
       <c r="W60">
-        <v>0.491</v>
+        <v>0.446</v>
       </c>
       <c r="X60">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>0.669</v>
+        <v>0.636</v>
       </c>
       <c r="Z60">
-        <v>22.9</v>
+        <v>17.8</v>
       </c>
       <c r="AA60">
-        <v>11.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB60">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="AC60">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD60" t="s">
         <v>174</v>
@@ -6409,73 +6379,70 @@
         <v>21</v>
       </c>
       <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>34</v>
+      </c>
+      <c r="H61">
+        <v>368</v>
+      </c>
+      <c r="I61">
+        <v>44</v>
+      </c>
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>12</v>
+      </c>
+      <c r="N61">
+        <v>27</v>
+      </c>
+      <c r="O61">
+        <v>26</v>
+      </c>
+      <c r="P61">
+        <v>64</v>
+      </c>
+      <c r="Q61">
+        <v>17</v>
+      </c>
+      <c r="R61">
+        <v>5</v>
+      </c>
+      <c r="S61">
         <v>4</v>
       </c>
-      <c r="G61">
-        <v>147</v>
-      </c>
-      <c r="H61">
-        <v>1684</v>
-      </c>
-      <c r="I61">
-        <v>213</v>
-      </c>
-      <c r="J61">
-        <v>530</v>
-      </c>
-      <c r="K61">
-        <v>18</v>
-      </c>
-      <c r="L61">
-        <v>50</v>
-      </c>
-      <c r="M61">
-        <v>65</v>
-      </c>
-      <c r="N61">
-        <v>98</v>
-      </c>
-      <c r="O61">
-        <v>129</v>
-      </c>
-      <c r="P61">
-        <v>352</v>
-      </c>
-      <c r="Q61">
-        <v>69</v>
-      </c>
-      <c r="R61">
-        <v>32</v>
-      </c>
-      <c r="S61">
-        <v>19</v>
-      </c>
       <c r="T61">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="U61">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="V61">
-        <v>509</v>
+        <v>100</v>
       </c>
       <c r="W61">
-        <v>0.402</v>
-      </c>
-      <c r="X61">
-        <v>0.36</v>
+        <v>0.367</v>
       </c>
       <c r="Y61">
-        <v>0.663</v>
+        <v>0.444</v>
       </c>
       <c r="Z61">
-        <v>11.5</v>
+        <v>10.8</v>
       </c>
       <c r="AA61">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AB61">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC61">
         <v>0.5</v>
@@ -6501,76 +6468,76 @@
         <v>24</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>43</v>
+      </c>
+      <c r="H62">
+        <v>795</v>
+      </c>
+      <c r="I62">
+        <v>69</v>
+      </c>
+      <c r="J62">
+        <v>197</v>
+      </c>
+      <c r="K62">
+        <v>31</v>
+      </c>
+      <c r="L62">
+        <v>106</v>
+      </c>
+      <c r="M62">
+        <v>13</v>
+      </c>
+      <c r="N62">
+        <v>18</v>
+      </c>
+      <c r="O62">
+        <v>39</v>
+      </c>
+      <c r="P62">
+        <v>118</v>
+      </c>
+      <c r="Q62">
+        <v>85</v>
+      </c>
+      <c r="R62">
+        <v>29</v>
+      </c>
+      <c r="S62">
+        <v>13</v>
+      </c>
+      <c r="T62">
+        <v>55</v>
+      </c>
+      <c r="U62">
+        <v>71</v>
+      </c>
+      <c r="V62">
+        <v>182</v>
+      </c>
+      <c r="W62">
+        <v>0.35</v>
+      </c>
+      <c r="X62">
+        <v>0.292</v>
+      </c>
+      <c r="Y62">
+        <v>0.722</v>
+      </c>
+      <c r="Z62">
+        <v>18.5</v>
+      </c>
+      <c r="AA62">
+        <v>4.2</v>
+      </c>
+      <c r="AB62">
+        <v>2.7</v>
+      </c>
+      <c r="AC62">
         <v>2</v>
-      </c>
-      <c r="G62">
-        <v>69</v>
-      </c>
-      <c r="H62">
-        <v>1089</v>
-      </c>
-      <c r="I62">
-        <v>93</v>
-      </c>
-      <c r="J62">
-        <v>263</v>
-      </c>
-      <c r="K62">
-        <v>41</v>
-      </c>
-      <c r="L62">
-        <v>138</v>
-      </c>
-      <c r="M62">
-        <v>22</v>
-      </c>
-      <c r="N62">
-        <v>32</v>
-      </c>
-      <c r="O62">
-        <v>47</v>
-      </c>
-      <c r="P62">
-        <v>158</v>
-      </c>
-      <c r="Q62">
-        <v>101</v>
-      </c>
-      <c r="R62">
-        <v>42</v>
-      </c>
-      <c r="S62">
-        <v>18</v>
-      </c>
-      <c r="T62">
-        <v>76</v>
-      </c>
-      <c r="U62">
-        <v>95</v>
-      </c>
-      <c r="V62">
-        <v>249</v>
-      </c>
-      <c r="W62">
-        <v>0.354</v>
-      </c>
-      <c r="X62">
-        <v>0.297</v>
-      </c>
-      <c r="Y62">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="Z62">
-        <v>15.8</v>
-      </c>
-      <c r="AA62">
-        <v>3.6</v>
-      </c>
-      <c r="AB62">
-        <v>2.3</v>
-      </c>
-      <c r="AC62">
-        <v>1.5</v>
       </c>
       <c r="AD62" t="s">
         <v>174</v>
@@ -6593,76 +6560,76 @@
         <v>19</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="H63">
-        <v>8193</v>
+        <v>738</v>
       </c>
       <c r="I63">
-        <v>1699</v>
+        <v>129</v>
       </c>
       <c r="J63">
-        <v>3456</v>
+        <v>263</v>
       </c>
       <c r="K63">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="L63">
-        <v>621</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>609</v>
+        <v>46</v>
       </c>
       <c r="N63">
-        <v>824</v>
+        <v>66</v>
       </c>
       <c r="O63">
-        <v>427</v>
+        <v>50</v>
       </c>
       <c r="P63">
-        <v>1614</v>
+        <v>138</v>
       </c>
       <c r="Q63">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="R63">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="S63">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="T63">
-        <v>512</v>
+        <v>47</v>
       </c>
       <c r="U63">
-        <v>596</v>
+        <v>42</v>
       </c>
       <c r="V63">
-        <v>4208</v>
+        <v>308</v>
       </c>
       <c r="W63">
-        <v>0.492</v>
+        <v>0.49</v>
       </c>
       <c r="X63">
-        <v>0.324</v>
+        <v>0.25</v>
       </c>
       <c r="Y63">
-        <v>0.739</v>
+        <v>0.697</v>
       </c>
       <c r="Z63">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="AA63">
-        <v>15</v>
+        <v>12.3</v>
       </c>
       <c r="AB63">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AC63">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AD63" t="s">
         <v>174</v>
@@ -6685,76 +6652,76 @@
         <v>23</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>1403</v>
+        <v>739</v>
       </c>
       <c r="I64">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="J64">
-        <v>429</v>
+        <v>220</v>
       </c>
       <c r="K64">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="M64">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="N64">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="O64">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="P64">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="Q64">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="R64">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="S64">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="T64">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="U64">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="V64">
-        <v>429</v>
+        <v>213</v>
       </c>
       <c r="W64">
-        <v>0.406</v>
+        <v>0.414</v>
       </c>
       <c r="X64">
-        <v>0.254</v>
+        <v>0.111</v>
       </c>
       <c r="Y64">
-        <v>0.68</v>
+        <v>0.652</v>
       </c>
       <c r="Z64">
-        <v>13.1</v>
+        <v>23.1</v>
       </c>
       <c r="AA64">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="AB64">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="AC64">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD64" t="s">
         <v>174</v>
@@ -6777,76 +6744,76 @@
         <v>20</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="H65">
-        <v>11350</v>
+        <v>2489</v>
       </c>
       <c r="I65">
-        <v>1750</v>
+        <v>301</v>
       </c>
       <c r="J65">
-        <v>3869</v>
+        <v>708</v>
       </c>
       <c r="K65">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="L65">
-        <v>546</v>
+        <v>42</v>
       </c>
       <c r="M65">
-        <v>589</v>
+        <v>118</v>
       </c>
       <c r="N65">
-        <v>943</v>
+        <v>214</v>
       </c>
       <c r="O65">
-        <v>438</v>
+        <v>107</v>
       </c>
       <c r="P65">
-        <v>1703</v>
+        <v>349</v>
       </c>
       <c r="Q65">
-        <v>2566</v>
+        <v>533</v>
       </c>
       <c r="R65">
-        <v>516</v>
+        <v>142</v>
       </c>
       <c r="S65">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="T65">
-        <v>934</v>
+        <v>203</v>
       </c>
       <c r="U65">
-        <v>846</v>
+        <v>193</v>
       </c>
       <c r="V65">
-        <v>4247</v>
+        <v>731</v>
       </c>
       <c r="W65">
-        <v>0.452</v>
+        <v>0.425</v>
       </c>
       <c r="X65">
-        <v>0.289</v>
+        <v>0.262</v>
       </c>
       <c r="Y65">
-        <v>0.625</v>
+        <v>0.551</v>
       </c>
       <c r="Z65">
-        <v>29.3</v>
+        <v>30.4</v>
       </c>
       <c r="AA65">
-        <v>11</v>
+        <v>8.9</v>
       </c>
       <c r="AB65">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AC65">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD65" t="s">
         <v>174</v>
@@ -6869,76 +6836,76 @@
         <v>23</v>
       </c>
       <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>29</v>
+      </c>
+      <c r="H66">
+        <v>236</v>
+      </c>
+      <c r="I66">
+        <v>31</v>
+      </c>
+      <c r="J66">
+        <v>67</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>11</v>
+      </c>
+      <c r="M66">
+        <v>25</v>
+      </c>
+      <c r="N66">
+        <v>33</v>
+      </c>
+      <c r="O66">
+        <v>18</v>
+      </c>
+      <c r="P66">
+        <v>50</v>
+      </c>
+      <c r="Q66">
+        <v>9</v>
+      </c>
+      <c r="R66">
+        <v>9</v>
+      </c>
+      <c r="S66">
         <v>6</v>
       </c>
-      <c r="G66">
-        <v>371</v>
-      </c>
-      <c r="H66">
-        <v>6956</v>
-      </c>
-      <c r="I66">
-        <v>1062</v>
-      </c>
-      <c r="J66">
-        <v>1885</v>
-      </c>
-      <c r="K66">
-        <v>103</v>
-      </c>
-      <c r="L66">
-        <v>351</v>
-      </c>
-      <c r="M66">
-        <v>640</v>
-      </c>
-      <c r="N66">
-        <v>866</v>
-      </c>
-      <c r="O66">
-        <v>545</v>
-      </c>
-      <c r="P66">
-        <v>1711</v>
-      </c>
-      <c r="Q66">
-        <v>364</v>
-      </c>
-      <c r="R66">
-        <v>251</v>
-      </c>
-      <c r="S66">
-        <v>173</v>
-      </c>
       <c r="T66">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="U66">
-        <v>782</v>
+        <v>40</v>
       </c>
       <c r="V66">
-        <v>2867</v>
+        <v>90</v>
       </c>
       <c r="W66">
-        <v>0.5629999999999999</v>
+        <v>0.463</v>
       </c>
       <c r="X66">
-        <v>0.293</v>
+        <v>0.273</v>
       </c>
       <c r="Y66">
-        <v>0.739</v>
+        <v>0.758</v>
       </c>
       <c r="Z66">
-        <v>18.7</v>
+        <v>8.1</v>
       </c>
       <c r="AA66">
-        <v>7.7</v>
+        <v>3.1</v>
       </c>
       <c r="AB66">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD66" t="s">
         <v>174</v>
@@ -6961,76 +6928,73 @@
         <v>20</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>375</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>10934</v>
+        <v>14</v>
       </c>
       <c r="I67">
-        <v>2274</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>4610</v>
+        <v>3</v>
       </c>
       <c r="K67">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1316</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>1818</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>3375</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>937</v>
+        <v>1</v>
       </c>
       <c r="U67">
-        <v>1189</v>
+        <v>1</v>
       </c>
       <c r="V67">
-        <v>6032</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>0.493</v>
-      </c>
-      <c r="X67">
-        <v>0.295</v>
+        <v>0.333</v>
       </c>
       <c r="Y67">
-        <v>0.724</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>29.2</v>
+        <v>14</v>
       </c>
       <c r="AA67">
-        <v>16.1</v>
+        <v>2</v>
       </c>
       <c r="AB67">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="s">
         <v>174</v>
@@ -7053,76 +7017,76 @@
         <v>21</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>35</v>
+      </c>
+      <c r="H68">
+        <v>261</v>
+      </c>
+      <c r="I68">
+        <v>26</v>
+      </c>
+      <c r="J68">
+        <v>67</v>
+      </c>
+      <c r="K68">
+        <v>5</v>
+      </c>
+      <c r="L68">
+        <v>19</v>
+      </c>
+      <c r="M68">
+        <v>16</v>
+      </c>
+      <c r="N68">
+        <v>24</v>
+      </c>
+      <c r="O68">
+        <v>15</v>
+      </c>
+      <c r="P68">
+        <v>39</v>
+      </c>
+      <c r="Q68">
+        <v>11</v>
+      </c>
+      <c r="R68">
         <v>6</v>
       </c>
-      <c r="G68">
-        <v>279</v>
-      </c>
-      <c r="H68">
-        <v>4887</v>
-      </c>
-      <c r="I68">
-        <v>640</v>
-      </c>
-      <c r="J68">
-        <v>1395</v>
-      </c>
-      <c r="K68">
-        <v>174</v>
-      </c>
-      <c r="L68">
-        <v>468</v>
-      </c>
-      <c r="M68">
-        <v>210</v>
-      </c>
-      <c r="N68">
-        <v>273</v>
-      </c>
-      <c r="O68">
-        <v>190</v>
-      </c>
-      <c r="P68">
-        <v>721</v>
-      </c>
-      <c r="Q68">
-        <v>218</v>
-      </c>
-      <c r="R68">
-        <v>144</v>
-      </c>
       <c r="S68">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="T68">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="U68">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="V68">
-        <v>1664</v>
+        <v>73</v>
       </c>
       <c r="W68">
-        <v>0.459</v>
+        <v>0.388</v>
       </c>
       <c r="X68">
-        <v>0.372</v>
+        <v>0.263</v>
       </c>
       <c r="Y68">
-        <v>0.769</v>
+        <v>0.667</v>
       </c>
       <c r="Z68">
-        <v>17.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA68">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="AB68">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD68" t="s">
         <v>174</v>
@@ -7145,76 +7109,76 @@
         <v>28</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="H69">
-        <v>1638</v>
+        <v>1047</v>
       </c>
       <c r="I69">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="J69">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="K69">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="L69">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="M69">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N69">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O69">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P69">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="Q69">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="R69">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="S69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T69">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U69">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="V69">
-        <v>480</v>
+        <v>323</v>
       </c>
       <c r="W69">
-        <v>0.424</v>
+        <v>0.452</v>
       </c>
       <c r="X69">
-        <v>0.373</v>
+        <v>0.406</v>
       </c>
       <c r="Y69">
-        <v>0.774</v>
+        <v>0.696</v>
       </c>
       <c r="Z69">
-        <v>11.2</v>
+        <v>15.4</v>
       </c>
       <c r="AA69">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="AB69">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC69">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD69" t="s">
         <v>174</v>
@@ -7237,76 +7201,76 @@
         <v>21</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="H70">
-        <v>3102</v>
+        <v>1131</v>
       </c>
       <c r="I70">
-        <v>407</v>
+        <v>146</v>
       </c>
       <c r="J70">
-        <v>879</v>
+        <v>346</v>
       </c>
       <c r="K70">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="L70">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="M70">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="N70">
-        <v>273</v>
+        <v>94</v>
       </c>
       <c r="O70">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="P70">
-        <v>522</v>
+        <v>163</v>
       </c>
       <c r="Q70">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="R70">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="S70">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="T70">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="U70">
-        <v>376</v>
+        <v>135</v>
       </c>
       <c r="V70">
-        <v>1052</v>
+        <v>386</v>
       </c>
       <c r="W70">
-        <v>0.463</v>
+        <v>0.422</v>
       </c>
       <c r="X70">
-        <v>0.251</v>
+        <v>0.244</v>
       </c>
       <c r="Y70">
-        <v>0.663</v>
+        <v>0.67</v>
       </c>
       <c r="Z70">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="AA70">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB70">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AC70">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD70" t="s">
         <v>174</v>
@@ -7329,76 +7293,76 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="H71">
-        <v>11441</v>
+        <v>1808</v>
       </c>
       <c r="I71">
-        <v>1303</v>
+        <v>175</v>
       </c>
       <c r="J71">
-        <v>3480</v>
+        <v>477</v>
       </c>
       <c r="K71">
-        <v>578</v>
+        <v>91</v>
       </c>
       <c r="L71">
-        <v>1814</v>
+        <v>272</v>
       </c>
       <c r="M71">
-        <v>727</v>
+        <v>82</v>
       </c>
       <c r="N71">
-        <v>940</v>
+        <v>127</v>
       </c>
       <c r="O71">
-        <v>356</v>
+        <v>61</v>
       </c>
       <c r="P71">
-        <v>1413</v>
+        <v>222</v>
       </c>
       <c r="Q71">
-        <v>1595</v>
+        <v>208</v>
       </c>
       <c r="R71">
-        <v>616</v>
+        <v>99</v>
       </c>
       <c r="S71">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="T71">
-        <v>674</v>
+        <v>90</v>
       </c>
       <c r="U71">
-        <v>1028</v>
+        <v>176</v>
       </c>
       <c r="V71">
-        <v>3911</v>
+        <v>523</v>
       </c>
       <c r="W71">
-        <v>0.374</v>
+        <v>0.367</v>
       </c>
       <c r="X71">
-        <v>0.319</v>
+        <v>0.335</v>
       </c>
       <c r="Y71">
-        <v>0.773</v>
+        <v>0.646</v>
       </c>
       <c r="Z71">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA71">
-        <v>9.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB71">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AC71">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AD71" t="s">
         <v>174</v>
@@ -7421,73 +7385,73 @@
         <v>23</v>
       </c>
       <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>12</v>
+      </c>
+      <c r="H72">
+        <v>65</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>25</v>
+      </c>
+      <c r="K72">
         <v>2</v>
       </c>
-      <c r="G72">
-        <v>27</v>
-      </c>
-      <c r="H72">
-        <v>131</v>
-      </c>
-      <c r="I72">
-        <v>15</v>
-      </c>
-      <c r="J72">
-        <v>47</v>
-      </c>
-      <c r="K72">
+      <c r="L72">
+        <v>11</v>
+      </c>
+      <c r="M72">
+        <v>12</v>
+      </c>
+      <c r="N72">
+        <v>13</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>6</v>
+      </c>
+      <c r="Q72">
+        <v>8</v>
+      </c>
+      <c r="R72">
         <v>3</v>
       </c>
-      <c r="L72">
-        <v>16</v>
-      </c>
-      <c r="M72">
-        <v>20</v>
-      </c>
-      <c r="N72">
-        <v>26</v>
-      </c>
-      <c r="O72">
-        <v>2</v>
-      </c>
-      <c r="P72">
-        <v>15</v>
-      </c>
-      <c r="Q72">
-        <v>19</v>
-      </c>
-      <c r="R72">
-        <v>8</v>
-      </c>
       <c r="S72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="U72">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="V72">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="W72">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="X72">
-        <v>0.188</v>
+        <v>0.182</v>
       </c>
       <c r="Y72">
-        <v>0.769</v>
+        <v>0.923</v>
       </c>
       <c r="Z72">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AA72">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AB72">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AC72">
         <v>0.7</v>
@@ -7513,76 +7477,76 @@
         <v>21</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="H73">
-        <v>6662</v>
+        <v>1127</v>
       </c>
       <c r="I73">
-        <v>765</v>
+        <v>108</v>
       </c>
       <c r="J73">
-        <v>1967</v>
+        <v>296</v>
       </c>
       <c r="K73">
-        <v>396</v>
+        <v>48</v>
       </c>
       <c r="L73">
-        <v>1121</v>
+        <v>149</v>
       </c>
       <c r="M73">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="N73">
-        <v>425</v>
+        <v>64</v>
       </c>
       <c r="O73">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="P73">
-        <v>688</v>
+        <v>88</v>
       </c>
       <c r="Q73">
-        <v>513</v>
+        <v>67</v>
       </c>
       <c r="R73">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="S73">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="T73">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="U73">
-        <v>425</v>
+        <v>92</v>
       </c>
       <c r="V73">
-        <v>2272</v>
+        <v>319</v>
       </c>
       <c r="W73">
-        <v>0.389</v>
+        <v>0.365</v>
       </c>
       <c r="X73">
-        <v>0.353</v>
+        <v>0.322</v>
       </c>
       <c r="Y73">
-        <v>0.8139999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="Z73">
-        <v>19.9</v>
+        <v>15.4</v>
       </c>
       <c r="AA73">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="AB73">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AC73">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD73" t="s">
         <v>174</v>
@@ -7605,31 +7569,31 @@
         <v>23</v>
       </c>
       <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>33</v>
+      </c>
+      <c r="I74">
         <v>2</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>6</v>
       </c>
-      <c r="H74">
-        <v>42</v>
-      </c>
-      <c r="I74">
-        <v>4</v>
-      </c>
-      <c r="J74">
-        <v>9</v>
-      </c>
       <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="L74">
-        <v>5</v>
-      </c>
-      <c r="M74">
-        <v>7</v>
-      </c>
       <c r="N74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -7647,34 +7611,34 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V74">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="W74">
-        <v>0.444</v>
+        <v>0.333</v>
       </c>
       <c r="X74">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Y74">
+        <v>0.5</v>
+      </c>
+      <c r="Z74">
+        <v>11</v>
+      </c>
+      <c r="AA74">
+        <v>2.7</v>
+      </c>
+      <c r="AB74">
         <v>0.7</v>
       </c>
-      <c r="Z74">
-        <v>7</v>
-      </c>
-      <c r="AA74">
+      <c r="AC74">
         <v>3</v>
-      </c>
-      <c r="AB74">
-        <v>0.3</v>
-      </c>
-      <c r="AC74">
-        <v>1.5</v>
       </c>
       <c r="AD74" t="s">
         <v>174</v>
@@ -7697,43 +7661,43 @@
         <v>21</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75">
+        <v>19</v>
+      </c>
+      <c r="H75">
+        <v>126</v>
+      </c>
+      <c r="I75">
+        <v>21</v>
+      </c>
+      <c r="J75">
+        <v>37</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>15</v>
+      </c>
+      <c r="N75">
         <v>28</v>
       </c>
-      <c r="H75">
-        <v>151</v>
-      </c>
-      <c r="I75">
-        <v>25</v>
-      </c>
-      <c r="J75">
-        <v>43</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>17</v>
-      </c>
-      <c r="N75">
-        <v>32</v>
-      </c>
       <c r="O75">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P75">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S75">
         <v>5</v>
@@ -7742,28 +7706,28 @@
         <v>7</v>
       </c>
       <c r="U75">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="V75">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="W75">
-        <v>0.581</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="Y75">
-        <v>0.531</v>
+        <v>0.536</v>
       </c>
       <c r="Z75">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA75">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AB75">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AC75">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD75" t="s">
         <v>174</v>
@@ -7786,76 +7750,76 @@
         <v>19</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>332</v>
+        <v>25</v>
       </c>
       <c r="H76">
-        <v>5659</v>
+        <v>259</v>
       </c>
       <c r="I76">
-        <v>638</v>
+        <v>30</v>
       </c>
       <c r="J76">
-        <v>1387</v>
+        <v>76</v>
       </c>
       <c r="K76">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="M76">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="N76">
-        <v>415</v>
+        <v>26</v>
       </c>
       <c r="O76">
-        <v>470</v>
+        <v>28</v>
       </c>
       <c r="P76">
-        <v>1740</v>
+        <v>86</v>
       </c>
       <c r="Q76">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="R76">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="S76">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="T76">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="U76">
-        <v>606</v>
+        <v>20</v>
       </c>
       <c r="V76">
-        <v>1655</v>
+        <v>83</v>
       </c>
       <c r="W76">
-        <v>0.46</v>
+        <v>0.395</v>
       </c>
       <c r="X76">
-        <v>0.31</v>
+        <v>0.385</v>
       </c>
       <c r="Y76">
         <v>0.6919999999999999</v>
       </c>
       <c r="Z76">
-        <v>17</v>
+        <v>10.4</v>
       </c>
       <c r="AA76">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="AB76">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD76" t="s">
         <v>174</v>
@@ -7878,76 +7842,76 @@
         <v>21</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>9218</v>
+        <v>614</v>
       </c>
       <c r="I77">
-        <v>2023</v>
+        <v>113</v>
       </c>
       <c r="J77">
-        <v>4012</v>
+        <v>214</v>
       </c>
       <c r="K77">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>643</v>
+        <v>21</v>
       </c>
       <c r="M77">
-        <v>623</v>
+        <v>14</v>
       </c>
       <c r="N77">
-        <v>802</v>
+        <v>19</v>
       </c>
       <c r="O77">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="P77">
-        <v>1320</v>
+        <v>85</v>
       </c>
       <c r="Q77">
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="R77">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="S77">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="T77">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="U77">
-        <v>758</v>
+        <v>51</v>
       </c>
       <c r="V77">
-        <v>4894</v>
+        <v>245</v>
       </c>
       <c r="W77">
-        <v>0.504</v>
+        <v>0.528</v>
       </c>
       <c r="X77">
-        <v>0.35</v>
+        <v>0.238</v>
       </c>
       <c r="Y77">
-        <v>0.777</v>
+        <v>0.737</v>
       </c>
       <c r="Z77">
-        <v>28.6</v>
+        <v>15.4</v>
       </c>
       <c r="AA77">
-        <v>15.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB77">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="AC77">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD77" t="s">
         <v>174</v>
@@ -8059,76 +8023,76 @@
         <v>24</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H79">
-        <v>900</v>
+        <v>672</v>
       </c>
       <c r="I79">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="J79">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="K79">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L79">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N79">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O79">
         <v>31</v>
       </c>
       <c r="P79">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="Q79">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="R79">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S79">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T79">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U79">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="V79">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="W79">
-        <v>0.388</v>
+        <v>0.402</v>
       </c>
       <c r="X79">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="Y79">
-        <v>0.824</v>
+        <v>0.769</v>
       </c>
       <c r="Z79">
         <v>13.2</v>
       </c>
       <c r="AA79">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AB79">
         <v>2.1</v>
       </c>
       <c r="AC79">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD79" t="s">
         <v>174</v>
@@ -8151,70 +8115,70 @@
         <v>23</v>
       </c>
       <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>20</v>
+      </c>
+      <c r="H80">
+        <v>108</v>
+      </c>
+      <c r="I80">
+        <v>19</v>
+      </c>
+      <c r="J80">
+        <v>42</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>18</v>
+      </c>
+      <c r="N80">
+        <v>23</v>
+      </c>
+      <c r="O80">
+        <v>10</v>
+      </c>
+      <c r="P80">
+        <v>29</v>
+      </c>
+      <c r="Q80">
+        <v>6</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
         <v>2</v>
       </c>
-      <c r="G80">
-        <v>27</v>
-      </c>
-      <c r="H80">
-        <v>149</v>
-      </c>
-      <c r="I80">
-        <v>24</v>
-      </c>
-      <c r="J80">
-        <v>53</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>8</v>
-      </c>
-      <c r="M80">
-        <v>19</v>
-      </c>
-      <c r="N80">
-        <v>25</v>
-      </c>
-      <c r="O80">
-        <v>15</v>
-      </c>
-      <c r="P80">
-        <v>41</v>
-      </c>
-      <c r="Q80">
-        <v>9</v>
-      </c>
-      <c r="R80">
-        <v>6</v>
-      </c>
-      <c r="S80">
-        <v>3</v>
-      </c>
       <c r="T80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U80">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="V80">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="W80">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="X80">
-        <v>0.125</v>
+        <v>0.167</v>
       </c>
       <c r="Y80">
-        <v>0.76</v>
+        <v>0.783</v>
       </c>
       <c r="Z80">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA80">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AB80">
         <v>1.5</v>
@@ -8243,76 +8207,76 @@
         <v>19</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="H81">
-        <v>16242</v>
+        <v>2969</v>
       </c>
       <c r="I81">
-        <v>3304</v>
+        <v>497</v>
       </c>
       <c r="J81">
-        <v>7488</v>
+        <v>1137</v>
       </c>
       <c r="K81">
-        <v>540</v>
+        <v>39</v>
       </c>
       <c r="L81">
-        <v>1625</v>
+        <v>126</v>
       </c>
       <c r="M81">
-        <v>1795</v>
+        <v>354</v>
       </c>
       <c r="N81">
-        <v>2451</v>
+        <v>466</v>
       </c>
       <c r="O81">
-        <v>572</v>
+        <v>134</v>
       </c>
       <c r="P81">
-        <v>1977</v>
+        <v>374</v>
       </c>
       <c r="Q81">
-        <v>1065</v>
+        <v>170</v>
       </c>
       <c r="R81">
-        <v>452</v>
+        <v>86</v>
       </c>
       <c r="S81">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="T81">
-        <v>954</v>
+        <v>177</v>
       </c>
       <c r="U81">
-        <v>981</v>
+        <v>190</v>
       </c>
       <c r="V81">
-        <v>8943</v>
+        <v>1387</v>
       </c>
       <c r="W81">
-        <v>0.441</v>
+        <v>0.437</v>
       </c>
       <c r="X81">
-        <v>0.332</v>
+        <v>0.31</v>
       </c>
       <c r="Y81">
-        <v>0.732</v>
+        <v>0.76</v>
       </c>
       <c r="Z81">
-        <v>35.8</v>
+        <v>36.2</v>
       </c>
       <c r="AA81">
-        <v>19.7</v>
+        <v>16.9</v>
       </c>
       <c r="AB81">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AC81">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD81" t="s">
         <v>174</v>
@@ -8335,76 +8299,76 @@
         <v>24</v>
       </c>
       <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>21</v>
+      </c>
+      <c r="H82">
+        <v>101</v>
+      </c>
+      <c r="I82">
+        <v>16</v>
+      </c>
+      <c r="J82">
+        <v>38</v>
+      </c>
+      <c r="K82">
+        <v>7</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>8</v>
+      </c>
+      <c r="R82">
         <v>3</v>
       </c>
-      <c r="G82">
-        <v>66</v>
-      </c>
-      <c r="H82">
-        <v>376</v>
-      </c>
-      <c r="I82">
-        <v>50</v>
-      </c>
-      <c r="J82">
-        <v>135</v>
-      </c>
-      <c r="K82">
-        <v>19</v>
-      </c>
-      <c r="L82">
-        <v>57</v>
-      </c>
-      <c r="M82">
-        <v>13</v>
-      </c>
-      <c r="N82">
-        <v>16</v>
-      </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>31</v>
-      </c>
-      <c r="Q82">
-        <v>30</v>
-      </c>
-      <c r="R82">
-        <v>15</v>
-      </c>
       <c r="S82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="U82">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="V82">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="W82">
-        <v>0.37</v>
+        <v>0.421</v>
       </c>
       <c r="X82">
-        <v>0.333</v>
+        <v>0.368</v>
       </c>
       <c r="Y82">
-        <v>0.8129999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z82">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="AA82">
         <v>2</v>
       </c>
       <c r="AB82">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AC82">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD82" t="s">
         <v>174</v>
@@ -8427,76 +8391,76 @@
         <v>19</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>812</v>
+        <v>332</v>
       </c>
       <c r="I83">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="J83">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="K83">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L83">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="M83">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N83">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="O83">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="P83">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="R83">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
         <v>5</v>
       </c>
-      <c r="T83">
-        <v>15</v>
-      </c>
       <c r="U83">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="V83">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="W83">
-        <v>0.367</v>
+        <v>0.353</v>
       </c>
       <c r="X83">
-        <v>0.277</v>
+        <v>0.258</v>
       </c>
       <c r="Y83">
-        <v>0.5629999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="Z83">
-        <v>8.5</v>
+        <v>10.7</v>
       </c>
       <c r="AA83">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AC83">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD83" t="s">
         <v>174</v>
